--- a/rules/rules_20220906.xlsx
+++ b/rules/rules_20220906.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780248EE-233D-4F2F-B3B4-358159643026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6323A0-D006-43CD-92F3-EE54203CBF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1335,7 +1335,7 @@
         <v>17</v>
       </c>
       <c r="B31" s="2">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
@@ -1364,7 +1364,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="2">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -1393,7 +1393,7 @@
         <v>16</v>
       </c>
       <c r="B33" s="2">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -1422,7 +1422,7 @@
         <v>16</v>
       </c>
       <c r="B34" s="2">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -1451,7 +1451,7 @@
         <v>16</v>
       </c>
       <c r="B35" s="2">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
@@ -1480,7 +1480,7 @@
         <v>16</v>
       </c>
       <c r="B36" s="2">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>10</v>
@@ -1509,7 +1509,7 @@
         <v>16</v>
       </c>
       <c r="B37" s="2">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>10</v>
